--- a/15_Debug_AntiDebug/01 反附加1 x64偏移大于4GB的跳转(调用).xlsx
+++ b/15_Debug_AntiDebug/01 反附加1 x64偏移大于4GB的跳转(调用).xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\.important\mySoftwareReverse\15_Debug_AntiDebug\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{279F0D13-7525-4BCC-808F-E4068D2F6DB6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{68A78F23-4079-4EDB-BA95-ADFD07A79CCC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="22">
   <si>
     <t>反附加1</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -101,6 +101,10 @@
   </si>
   <si>
     <t>绝对地址</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>寄存器调用、间接调用 …</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -108,7 +112,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -168,6 +172,15 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -190,7 +203,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -198,6 +211,7 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1253,10 +1267,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J22"/>
+  <dimension ref="A1:J24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C23" sqref="C23"/>
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -1292,7 +1306,7 @@
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="C12" s="4" t="s">
+      <c r="C12" s="5" t="s">
         <v>10</v>
       </c>
     </row>
@@ -1348,6 +1362,11 @@
       </c>
       <c r="J22" s="4" t="s">
         <v>20</v>
+      </c>
+    </row>
+    <row r="24" spans="4:10" x14ac:dyDescent="0.25">
+      <c r="D24" s="4" t="s">
+        <v>21</v>
       </c>
     </row>
   </sheetData>

--- a/15_Debug_AntiDebug/01 反附加1 x64偏移大于4GB的跳转(调用).xlsx
+++ b/15_Debug_AntiDebug/01 反附加1 x64偏移大于4GB的跳转(调用).xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\.important\mySoftwareReverse\15_Debug_AntiDebug\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{68A78F23-4079-4EDB-BA95-ADFD07A79CCC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F0E7FD1-8A95-4E1A-9793-EEFC865DB784}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="9024" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -18,6 +18,7 @@
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="162913"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -1269,8 +1270,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -1384,9 +1385,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{60CD582E-A1D1-4B52-BCDE-AB7A44CE91D0}">
   <dimension ref="B3:B9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="M17" sqref="M17"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <sheetData>
@@ -1423,8 +1422,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{83837123-6C92-4847-BC1E-FEB8162AED0A}">
   <dimension ref="B2:B61"/>
   <sheetViews>
-    <sheetView topLeftCell="A53" workbookViewId="0">
-      <selection activeCell="Q65" sqref="Q65"/>
+    <sheetView tabSelected="1" topLeftCell="A53" workbookViewId="0">
+      <selection activeCell="B77" sqref="B77"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
